--- a/Milestone 04/CSC 225 - gantt chart.xlsx
+++ b/Milestone 04/CSC 225 - gantt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f7049284458a4f2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f7049284458a4f2/Desktop/CSC 225/Assignments/Final Project/Milestone 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{4E6BCE01-7448-419C-B037-7DB235922D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DA467E-26C1-416C-81B3-73402FA8FA09}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{4E6BCE01-7448-419C-B037-7DB235922D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E189F1-92D9-40BD-A5E5-C3063ECBFD18}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Becca and Lauryn</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>E</t>
@@ -968,19 +965,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -992,17 +992,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1046,18 +1043,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
@@ -1087,6 +1072,18 @@
         <bottom style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1342,6 +1339,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1550,8 +1551,8 @@
   </sheetPr>
   <dimension ref="A1:BL26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1577,28 +1578,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="93">
+      <c r="Q1" s="94">
         <v>45324</v>
       </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="76" t="s">
@@ -1610,28 +1611,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="91">
+      <c r="Q2" s="92">
         <v>1</v>
       </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
@@ -1647,102 +1648,102 @@
         <v>13</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="88">
+      <c r="I4" s="99">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="91" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="31">
@@ -1971,8 +1972,8 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -2531,13 +2532,13 @@
       <c r="E12" s="65">
         <v>45324</v>
       </c>
-      <c r="F12" s="65" t="s">
-        <v>46</v>
+      <c r="F12" s="65">
+        <v>45416</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="5" t="e">
+      <c r="H12" s="5">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>93</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -2610,13 +2611,13 @@
       <c r="E13" s="65">
         <v>45365</v>
       </c>
-      <c r="F13" s="65" t="s">
-        <v>46</v>
+      <c r="F13" s="65">
+        <v>45416</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="5" t="e">
+      <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>52</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -2689,13 +2690,13 @@
       <c r="E14" s="65">
         <v>45365</v>
       </c>
-      <c r="F14" s="65" t="s">
-        <v>46</v>
+      <c r="F14" s="65">
+        <v>45416</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="5" t="e">
+      <c r="H14" s="5">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>52</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
@@ -2768,13 +2769,13 @@
       <c r="E15" s="65">
         <v>45365</v>
       </c>
-      <c r="F15" s="65" t="s">
-        <v>46</v>
+      <c r="F15" s="65">
+        <v>45416</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="5" t="e">
+      <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>52</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -2847,13 +2848,13 @@
       <c r="E16" s="65">
         <v>45365</v>
       </c>
-      <c r="F16" s="65" t="s">
-        <v>46</v>
+      <c r="F16" s="65">
+        <v>45416</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="5" t="e">
+      <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>52</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -2926,8 +2927,8 @@
       <c r="E17" s="65">
         <v>45365</v>
       </c>
-      <c r="F17" s="65" t="s">
-        <v>46</v>
+      <c r="F17" s="65">
+        <v>45416</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5"/>
@@ -3002,8 +3003,8 @@
       <c r="E18" s="65">
         <v>45365</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>46</v>
+      <c r="F18" s="65">
+        <v>45416</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5"/>
@@ -3067,7 +3068,7 @@
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
       <c r="B19" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>38</v>
@@ -3078,8 +3079,8 @@
       <c r="E19" s="65">
         <v>45365</v>
       </c>
-      <c r="F19" s="65" t="s">
-        <v>46</v>
+      <c r="F19" s="65">
+        <v>45416</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5"/>
@@ -3142,10 +3143,10 @@
     </row>
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>36</v>
@@ -3156,8 +3157,8 @@
       <c r="E20" s="65">
         <v>45365</v>
       </c>
-      <c r="F20" s="65" t="s">
-        <v>46</v>
+      <c r="F20" s="65">
+        <v>45416</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5"/>
@@ -3221,7 +3222,7 @@
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="13"/>
       <c r="B21" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>38</v>
@@ -3232,8 +3233,8 @@
       <c r="E21" s="65">
         <v>45365</v>
       </c>
-      <c r="F21" s="65" t="s">
-        <v>46</v>
+      <c r="F21" s="65">
+        <v>45416</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5"/>
@@ -3446,16 +3447,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -3464,6 +3455,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D23">
     <cfRule type="dataBar" priority="23">
@@ -3480,15 +3481,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL21">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL10">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3674,23 +3675,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4006,29 +3996,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4055,9 +4045,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Milestone 04/CSC 225 - gantt chart.xlsx
+++ b/Milestone 04/CSC 225 - gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f7049284458a4f2/Desktop/CSC 225/Assignments/Final Project/Milestone 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{4E6BCE01-7448-419C-B037-7DB235922D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E189F1-92D9-40BD-A5E5-C3063ECBFD18}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{4E6BCE01-7448-419C-B037-7DB235922D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{575909A6-828D-48C5-9C5A-B2B2E3E6AC92}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Already completed</t>
   </si>
   <si>
-    <t>Create the board</t>
-  </si>
-  <si>
     <t>Lo</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>Gameplay design</t>
   </si>
   <si>
-    <t>Becca and Lauryn</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -201,6 +195,45 @@
   </si>
   <si>
     <t>How to play page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milestone 1 - </t>
+  </si>
+  <si>
+    <t>Create the Board</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>8x8 grid</t>
+  </si>
+  <si>
+    <t>Milestone 2 -</t>
+  </si>
+  <si>
+    <t>Formatting the squares</t>
+  </si>
+  <si>
+    <t>Card Layout/ Jframe</t>
+  </si>
+  <si>
+    <t>Back buttons</t>
+  </si>
+  <si>
+    <t>Put things on there</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Combined stats stuff</t>
+  </si>
+  <si>
+    <t>Coding tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becca and Lauryn </t>
   </si>
 </sst>
 </file>
@@ -730,7 +763,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -965,22 +998,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -992,14 +1022,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1549,10 +1588,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL26"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1578,28 +1617,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="94">
+      <c r="Q1" s="93">
         <v>45324</v>
       </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="76" t="s">
@@ -1611,28 +1650,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="92">
+      <c r="Q2" s="91">
         <v>1</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
@@ -1648,102 +1687,102 @@
         <v>13</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="99">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="86">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="98"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="89" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="31">
@@ -1972,8 +2011,8 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="86"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -2284,7 +2323,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H23" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H32" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2346,99 +2385,90 @@
     </row>
     <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="45"/>
+    </row>
+    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="49">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E10" s="50">
         <f>Project_Start</f>
         <v>45324</v>
       </c>
-      <c r="F9" s="50">
-        <v>45351</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="5">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="51"/>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="51"/>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="51"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="51"/>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="51"/>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="51"/>
-      <c r="BJ9" s="51"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="51"/>
-    </row>
-    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="54">
-        <v>1</v>
-      </c>
-      <c r="E10" s="55">
-        <v>45324</v>
-      </c>
-      <c r="F10" s="55">
+      <c r="F10" s="50">
         <v>45351</v>
       </c>
       <c r="G10" s="17"/>
@@ -2458,8 +2488,8 @@
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
       <c r="Y10" s="51"/>
@@ -2505,41 +2535,99 @@
     </row>
     <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
-      <c r="B11" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+      <c r="E11" s="50">
+        <v>45324</v>
+      </c>
+      <c r="F11" s="50">
+        <v>45351</v>
+      </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="51"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="51"/>
+      <c r="BA11" s="51"/>
+      <c r="BB11" s="51"/>
+      <c r="BC11" s="51"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="51"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
     </row>
     <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
-      <c r="B12" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="64">
-        <v>0</v>
-      </c>
-      <c r="E12" s="65">
+      <c r="B12" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="49">
+        <v>1</v>
+      </c>
+      <c r="E12" s="50">
         <v>45324</v>
       </c>
-      <c r="F12" s="65">
-        <v>45416</v>
+      <c r="F12" s="50">
+        <v>45351</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="5">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
@@ -2598,27 +2686,18 @@
       <c r="BL12" s="51"/>
     </row>
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="64">
-        <v>0</v>
-      </c>
-      <c r="E13" s="65">
-        <v>45365</v>
-      </c>
-      <c r="F13" s="65">
-        <v>45416</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="5">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
@@ -2631,8 +2710,8 @@
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
@@ -2677,27 +2756,24 @@
       <c r="BL13" s="51"/>
     </row>
     <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="64">
-        <v>0</v>
-      </c>
-      <c r="E14" s="65">
-        <v>45365</v>
-      </c>
-      <c r="F14" s="65">
-        <v>45416</v>
+      <c r="A14" s="14"/>
+      <c r="B14" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="49">
+        <v>1</v>
+      </c>
+      <c r="E14" s="50">
+        <v>45324</v>
+      </c>
+      <c r="F14" s="50">
+        <v>45351</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="5">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>
@@ -2756,27 +2832,24 @@
       <c r="BL14" s="51"/>
     </row>
     <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="64">
-        <v>0</v>
-      </c>
-      <c r="E15" s="65">
-        <v>45365</v>
-      </c>
-      <c r="F15" s="65">
-        <v>45416</v>
+      <c r="A15" s="14"/>
+      <c r="B15" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1</v>
+      </c>
+      <c r="E15" s="50">
+        <v>45324</v>
+      </c>
+      <c r="F15" s="50">
+        <v>45351</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="5">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
       <c r="K15" s="51"/>
@@ -2793,7 +2866,7 @@
       <c r="V15" s="51"/>
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
-      <c r="Y15" s="56"/>
+      <c r="Y15" s="51"/>
       <c r="Z15" s="51"/>
       <c r="AA15" s="51"/>
       <c r="AB15" s="51"/>
@@ -2835,26 +2908,26 @@
       <c r="BL15" s="51"/>
     </row>
     <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="64">
-        <v>0</v>
-      </c>
-      <c r="E16" s="65">
-        <v>45365</v>
-      </c>
-      <c r="F16" s="65">
-        <v>45416</v>
+      <c r="A16" s="14"/>
+      <c r="B16" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="54">
+        <v>1</v>
+      </c>
+      <c r="E16" s="55">
+        <v>45324</v>
+      </c>
+      <c r="F16" s="55">
+        <v>45351</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -2868,8 +2941,8 @@
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
       <c r="Y16" s="51"/>
@@ -2914,100 +2987,42 @@
       <c r="BL16" s="51"/>
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="65">
-        <v>45365</v>
-      </c>
-      <c r="F17" s="65">
-        <v>45416</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="51"/>
-      <c r="BL17" s="51"/>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="62" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D18" s="64">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="65">
-        <v>45365</v>
+        <v>45324</v>
       </c>
       <c r="F18" s="65">
-        <v>45416</v>
+        <v>45415</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
       <c r="K18" s="51"/>
@@ -3066,21 +3081,15 @@
       <c r="BL18" s="51"/>
     </row>
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="64">
-        <v>0</v>
-      </c>
-      <c r="E19" s="65">
-        <v>45365</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="65">
-        <v>45416</v>
+        <v>45415</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5"/>
@@ -3142,14 +3151,12 @@
       <c r="BL19" s="51"/>
     </row>
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A20" s="13"/>
       <c r="B20" s="62" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="64">
         <v>0</v>
@@ -3158,10 +3165,13 @@
         <v>45365</v>
       </c>
       <c r="F20" s="65">
-        <v>45416</v>
+        <v>45387</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
@@ -3174,8 +3184,8 @@
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
       <c r="Y20" s="51"/>
@@ -3222,10 +3232,10 @@
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="13"/>
       <c r="B21" s="62" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D21" s="64">
         <v>0</v>
@@ -3234,10 +3244,13 @@
         <v>45365</v>
       </c>
       <c r="F21" s="65">
-        <v>45416</v>
+        <v>45408</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
@@ -3297,156 +3310,846 @@
     </row>
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
+      <c r="B22" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="64">
+        <v>0</v>
+      </c>
+      <c r="E22" s="65">
+        <v>45365</v>
+      </c>
+      <c r="F22" s="65">
+        <v>45415</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="5">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+    </row>
+    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65">
+        <v>45415</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="51"/>
+      <c r="BL23" s="51"/>
+    </row>
+    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="64">
+        <v>0</v>
+      </c>
+      <c r="E24" s="65">
+        <v>45365</v>
+      </c>
+      <c r="F24" s="65">
+        <v>45408</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="5">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="51"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="51"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+    </row>
+    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="65">
+        <v>45365</v>
+      </c>
+      <c r="F25" s="65">
+        <v>45415</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+    </row>
+    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="65">
+        <v>45365</v>
+      </c>
+      <c r="F26" s="65">
+        <v>45408</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+    </row>
+    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65">
+        <v>45408</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="51"/>
+      <c r="BC27" s="51"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="51"/>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="51"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27" s="51"/>
+    </row>
+    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="65">
+        <v>45365</v>
+      </c>
+      <c r="F28" s="65">
+        <v>45387</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="51"/>
+      <c r="BB28" s="51"/>
+      <c r="BC28" s="51"/>
+      <c r="BD28" s="51"/>
+      <c r="BE28" s="51"/>
+      <c r="BF28" s="51"/>
+      <c r="BG28" s="51"/>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="51"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="51"/>
+      <c r="BL28" s="51"/>
+    </row>
+    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="64">
+        <v>0</v>
+      </c>
+      <c r="E29" s="65">
+        <v>45365</v>
+      </c>
+      <c r="F29" s="65">
+        <v>45408</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="51"/>
+      <c r="AZ29" s="51"/>
+      <c r="BA29" s="51"/>
+      <c r="BB29" s="51"/>
+      <c r="BC29" s="51"/>
+      <c r="BD29" s="51"/>
+      <c r="BE29" s="51"/>
+      <c r="BF29" s="51"/>
+      <c r="BG29" s="51"/>
+      <c r="BH29" s="51"/>
+      <c r="BI29" s="51"/>
+      <c r="BJ29" s="51"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+    </row>
+    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="64">
+        <v>0</v>
+      </c>
+      <c r="E30" s="65">
+        <v>45365</v>
+      </c>
+      <c r="F30" s="65">
+        <v>45408</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="51"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="51"/>
+      <c r="AY30" s="51"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="51"/>
+      <c r="BB30" s="51"/>
+      <c r="BC30" s="51"/>
+      <c r="BD30" s="51"/>
+      <c r="BE30" s="51"/>
+      <c r="BF30" s="51"/>
+      <c r="BG30" s="51"/>
+      <c r="BH30" s="51"/>
+      <c r="BI30" s="51"/>
+      <c r="BJ30" s="51"/>
+      <c r="BK30" s="51"/>
+      <c r="BL30" s="51"/>
+    </row>
+    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="13"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="45"/>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="45"/>
-      <c r="BE22" s="45"/>
-      <c r="BF22" s="45"/>
-      <c r="BG22" s="45"/>
-      <c r="BH22" s="45"/>
-      <c r="BI22" s="45"/>
-      <c r="BJ22" s="45"/>
-      <c r="BK22" s="45"/>
-      <c r="BL22" s="45"/>
-    </row>
-    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="70" t="s">
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="45"/>
+      <c r="BA31" s="45"/>
+      <c r="BB31" s="45"/>
+      <c r="BC31" s="45"/>
+      <c r="BD31" s="45"/>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="45"/>
+      <c r="BH31" s="45"/>
+      <c r="BI31" s="45"/>
+      <c r="BJ31" s="45"/>
+      <c r="BK31" s="45"/>
+      <c r="BL31" s="45"/>
+    </row>
+    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14"/>
+      <c r="B32" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="6" t="str">
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="75"/>
-      <c r="AP23" s="75"/>
-      <c r="AQ23" s="75"/>
-      <c r="AR23" s="75"/>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="75"/>
-      <c r="AU23" s="75"/>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
-      <c r="AX23" s="75"/>
-      <c r="AY23" s="75"/>
-      <c r="AZ23" s="75"/>
-      <c r="BA23" s="75"/>
-      <c r="BB23" s="75"/>
-      <c r="BC23" s="75"/>
-      <c r="BD23" s="75"/>
-      <c r="BE23" s="75"/>
-      <c r="BF23" s="75"/>
-      <c r="BG23" s="75"/>
-      <c r="BH23" s="75"/>
-      <c r="BI23" s="75"/>
-      <c r="BJ23" s="75"/>
-      <c r="BK23" s="75"/>
-      <c r="BL23" s="75"/>
-    </row>
-    <row r="24" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="16"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="4"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="75"/>
+      <c r="AP32" s="75"/>
+      <c r="AQ32" s="75"/>
+      <c r="AR32" s="75"/>
+      <c r="AS32" s="75"/>
+      <c r="AT32" s="75"/>
+      <c r="AU32" s="75"/>
+      <c r="AV32" s="75"/>
+      <c r="AW32" s="75"/>
+      <c r="AX32" s="75"/>
+      <c r="AY32" s="75"/>
+      <c r="AZ32" s="75"/>
+      <c r="BA32" s="75"/>
+      <c r="BB32" s="75"/>
+      <c r="BC32" s="75"/>
+      <c r="BD32" s="75"/>
+      <c r="BE32" s="75"/>
+      <c r="BF32" s="75"/>
+      <c r="BG32" s="75"/>
+      <c r="BH32" s="75"/>
+      <c r="BI32" s="75"/>
+      <c r="BJ32" s="75"/>
+      <c r="BK32" s="75"/>
+      <c r="BL32" s="75"/>
+    </row>
+    <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="16"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -3455,18 +4158,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D23">
+  <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3480,12 +4173,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL21">
+  <conditionalFormatting sqref="I4:BL30">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:BL10">
+  <conditionalFormatting sqref="I10:BL16">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3493,7 +4186,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL21">
+  <conditionalFormatting sqref="I18:BL30">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3510,11 +4203,11 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{EEA7C783-457F-401F-98B9-9035587B9210}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{43382715-6BC7-4B19-A31B-4B13A11ED166}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{7A3789A6-A3FB-43B6-A4F7-8C0AC564F67E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A11" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A23" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8:A9" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A10:A15" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A16" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A17" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A32" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3542,7 +4235,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D23</xm:sqref>
+          <xm:sqref>D7:D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3684,6 +4377,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3995,26 +4708,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
@@ -4024,6 +4717,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4044,25 +4756,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Milestone 04/CSC 225 - gantt chart.xlsx
+++ b/Milestone 04/CSC 225 - gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f7049284458a4f2/Desktop/CSC 225/Assignments/Final Project/Milestone 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{4E6BCE01-7448-419C-B037-7DB235922D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{575909A6-828D-48C5-9C5A-B2B2E3E6AC92}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{4E6BCE01-7448-419C-B037-7DB235922D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B2B1F3-18BD-4A91-9A23-7DF62289788C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,12 +510,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="4"/>
       </patternFill>
@@ -524,6 +518,28 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -733,7 +749,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -762,8 +778,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -835,13 +855,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,21 +931,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -998,19 +1003,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1022,26 +1030,69 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="5" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="0" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="15" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
+    <cellStyle name="40% - Accent1" xfId="14" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Accent1" xfId="13" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="15" builtinId="33"/>
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
@@ -1590,8 +1641,8 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1609,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="2.25">
       <c r="A1" s="14"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="73" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="18"/>
@@ -1617,61 +1668,61 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="93">
+      <c r="Q1" s="89">
         <v>45324</v>
       </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="72" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="91">
+      <c r="Q2" s="87">
         <v>1</v>
       </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
@@ -1687,102 +1738,102 @@
         <v>13</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="88">
+      <c r="I4" s="94">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="86" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="31">
@@ -2011,12 +2062,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2314,13 +2365,13 @@
     </row>
     <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
         <f t="shared" ref="H8:H32" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2687,15 +2738,15 @@
     </row>
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="17"/>
       <c r="H13" s="5"/>
       <c r="I13" s="51"/>
@@ -2988,13 +3039,13 @@
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3003,19 +3054,19 @@
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="59">
         <v>0.3</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="60">
         <v>45324</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="60">
         <v>45415</v>
       </c>
       <c r="G18" s="17"/>
@@ -3082,15 +3133,13 @@
     </row>
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65">
-        <v>45415</v>
-      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="17"/>
       <c r="H19" s="5"/>
       <c r="I19" s="51"/>
@@ -3152,19 +3201,19 @@
     </row>
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="59">
         <v>0</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="60">
         <v>45365</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="60">
         <v>45387</v>
       </c>
       <c r="G20" s="17"/>
@@ -3231,19 +3280,19 @@
     </row>
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="13"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="59">
         <v>0</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="60">
         <v>45365</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="60">
         <v>45408</v>
       </c>
       <c r="G21" s="17"/>
@@ -3310,19 +3359,19 @@
     </row>
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="59">
         <v>0</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="60">
         <v>45365</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="60">
         <v>45415</v>
       </c>
       <c r="G22" s="17"/>
@@ -3389,15 +3438,13 @@
     </row>
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13"/>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65">
-        <v>45415</v>
-      </c>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="17"/>
       <c r="H23" s="5"/>
       <c r="I23" s="51"/>
@@ -3459,19 +3506,19 @@
     </row>
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="13"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="59">
         <v>0</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="60">
         <v>45365</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="60">
         <v>45408</v>
       </c>
       <c r="G24" s="17"/>
@@ -3538,19 +3585,19 @@
     </row>
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13"/>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="59">
         <v>0.1</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="60">
         <v>45365</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="60">
         <v>45415</v>
       </c>
       <c r="G25" s="17"/>
@@ -3614,19 +3661,19 @@
     </row>
     <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="59">
         <v>0.05</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="60">
         <v>45365</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="60">
         <v>45408</v>
       </c>
       <c r="G26" s="17"/>
@@ -3690,15 +3737,13 @@
     </row>
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="13"/>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65">
-        <v>45408</v>
-      </c>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="17"/>
       <c r="H27" s="5"/>
       <c r="I27" s="51"/>
@@ -3760,19 +3805,19 @@
     </row>
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="59">
         <v>0.5</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="60">
         <v>45365</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="60">
         <v>45387</v>
       </c>
       <c r="G28" s="17"/>
@@ -3838,19 +3883,19 @@
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="59">
         <v>0</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="60">
         <v>45365</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="60">
         <v>45408</v>
       </c>
       <c r="G29" s="17"/>
@@ -3914,19 +3959,19 @@
     </row>
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="59">
         <v>0</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="60">
         <v>45365</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="60">
         <v>45408</v>
       </c>
       <c r="G30" s="17"/>
@@ -3990,11 +4035,11 @@
     </row>
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="13"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4059,74 +4104,74 @@
     </row>
     <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="17"/>
       <c r="H32" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="75"/>
-      <c r="AP32" s="75"/>
-      <c r="AQ32" s="75"/>
-      <c r="AR32" s="75"/>
-      <c r="AS32" s="75"/>
-      <c r="AT32" s="75"/>
-      <c r="AU32" s="75"/>
-      <c r="AV32" s="75"/>
-      <c r="AW32" s="75"/>
-      <c r="AX32" s="75"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="75"/>
-      <c r="BB32" s="75"/>
-      <c r="BC32" s="75"/>
-      <c r="BD32" s="75"/>
-      <c r="BE32" s="75"/>
-      <c r="BF32" s="75"/>
-      <c r="BG32" s="75"/>
-      <c r="BH32" s="75"/>
-      <c r="BI32" s="75"/>
-      <c r="BJ32" s="75"/>
-      <c r="BK32" s="75"/>
-      <c r="BL32" s="75"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="70"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="70"/>
+      <c r="AG32" s="70"/>
+      <c r="AH32" s="70"/>
+      <c r="AI32" s="70"/>
+      <c r="AJ32" s="70"/>
+      <c r="AK32" s="70"/>
+      <c r="AL32" s="70"/>
+      <c r="AM32" s="70"/>
+      <c r="AN32" s="70"/>
+      <c r="AO32" s="70"/>
+      <c r="AP32" s="70"/>
+      <c r="AQ32" s="70"/>
+      <c r="AR32" s="70"/>
+      <c r="AS32" s="70"/>
+      <c r="AT32" s="70"/>
+      <c r="AU32" s="70"/>
+      <c r="AV32" s="70"/>
+      <c r="AW32" s="70"/>
+      <c r="AX32" s="70"/>
+      <c r="AY32" s="70"/>
+      <c r="AZ32" s="70"/>
+      <c r="BA32" s="70"/>
+      <c r="BB32" s="70"/>
+      <c r="BC32" s="70"/>
+      <c r="BD32" s="70"/>
+      <c r="BE32" s="70"/>
+      <c r="BF32" s="70"/>
+      <c r="BG32" s="70"/>
+      <c r="BH32" s="70"/>
+      <c r="BI32" s="70"/>
+      <c r="BJ32" s="70"/>
+      <c r="BK32" s="70"/>
+      <c r="BL32" s="70"/>
     </row>
     <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G33" s="3"/>
@@ -4140,16 +4185,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4158,6 +4193,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="23">
@@ -4257,103 +4302,103 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="80"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="1.1000000000000001">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="76" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="78" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="1.1000000000000001">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="77" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="1.1000000000000001">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.35">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="77" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="1.1000000000000001">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="85"/>
+      <c r="A17" s="80"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="85"/>
+      <c r="A18" s="80"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="85"/>
+      <c r="A19" s="80"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="85"/>
+      <c r="A20" s="80"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="85"/>
+      <c r="A21" s="80"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="85"/>
+      <c r="A22" s="80"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="85"/>
+      <c r="A23" s="80"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="85"/>
+      <c r="A24" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4377,26 +4422,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4708,6 +4733,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
@@ -4717,25 +4762,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4756,6 +4782,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>